--- a/idep/idep.xlsx
+++ b/idep/idep.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fwillia1\Documents\GitHub\iowa\idep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fwillia1\Documents\GitHub\nishnabotna\idep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E9C5D6-6B5F-49FC-BF86-BA190F7A92A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2BAC66-0FC7-43A3-8C09-57EC5150CCA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="idep" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcultaitons" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FID</t>
   </si>
@@ -57,11 +66,26 @@
   <si>
     <t>delivert Metric Tons</t>
   </si>
+  <si>
+    <t>Total Erosion</t>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>Sed Input</t>
+  </si>
+  <si>
+    <t>Channel Migration Input</t>
+  </si>
+  <si>
+    <t>Channel Migration %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,8 +563,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,19 +921,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -982,12 +1012,8 @@
       <c r="L2">
         <v>10240002</v>
       </c>
-      <c r="M2">
-        <f>SUM(J:J)</f>
-        <v>89497570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1025,7 +1051,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1101,7 +1127,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1139,7 +1165,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1177,7 +1203,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1253,7 +1279,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1329,7 +1355,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1405,7 +1431,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1443,7 +1469,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1481,7 +1507,7 @@
         <v>10240002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3873,6 +3899,65 @@
       </c>
       <c r="L78">
         <v>10240003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9288748D-DD42-4D92-9970-C2D27C01AD70}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>SUM(idep!J:J)</f>
+        <v>89497570</v>
+      </c>
+      <c r="B2">
+        <v>0.33</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2*B2</f>
+        <v>29534198.100000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11731704.0906792</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/SUM(C2:D2)</f>
+        <v>0.28429534961988689</v>
       </c>
     </row>
   </sheetData>
